--- a/.transfer your modding stuff here/### Numahr/Concept and Design/Succession Laws Matrix.xlsx
+++ b/.transfer your modding stuff here/### Numahr/Concept and Design/Succession Laws Matrix.xlsx
@@ -93,7 +93,7 @@
     <t>Centralization law</t>
   </si>
   <si>
-    <t>Control of clans law</t>
+    <t>(Clanic) centralization law</t>
   </si>
 </sst>
 </file>
@@ -526,7 +526,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/.transfer your modding stuff here/### Numahr/Concept and Design/Succession Laws Matrix.xlsx
+++ b/.transfer your modding stuff here/### Numahr/Concept and Design/Succession Laws Matrix.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>Elective Gavelkind</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>(Clanic) centralization law</t>
+  </si>
+  <si>
+    <t>Muslim</t>
   </si>
 </sst>
 </file>
@@ -526,7 +529,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,11 +772,11 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
-        <v>3</v>
+      <c r="D11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="G11" s="8">
         <v>4</v>
